--- a/data/trans_orig/Q21A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,64 +729,64 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,71</t>
+          <t>2,0; 3,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,26</t>
+          <t>1,49; 2,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,92</t>
+          <t>1,36; 1,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,72</t>
+          <t>1,3; 1,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,7</t>
+          <t>2,34; 3,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,07</t>
+          <t>1,88; 3,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,72</t>
+          <t>1,73; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,6</t>
+          <t>1,24; 1,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,36</t>
+          <t>2,29; 3,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,55</t>
+          <t>1,8; 2,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,18</t>
+          <t>1,6; 2,17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,64</t>
+          <t>1,22; 1,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,44</t>
+          <t>1,4; 2,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,72</t>
+          <t>1,3; 1,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,45</t>
+          <t>1,73; 5,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,29</t>
+          <t>1,45; 2,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 1,94</t>
+          <t>1,54; 1,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 1,91</t>
+          <t>1,4; 1,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,13</t>
+          <t>1,9; 3,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 1,94</t>
+          <t>1,41; 1,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,09</t>
+          <t>1,55; 2,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,73</t>
+          <t>1,4; 1,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,98</t>
+          <t>1,95; 3,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,53</t>
+          <t>1,1; 1,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,32</t>
+          <t>1,11; 1,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,78</t>
+          <t>1,23; 1,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,51</t>
+          <t>1,21; 1,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,58</t>
+          <t>1,55; 2,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,72</t>
+          <t>1,61; 2,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,24</t>
+          <t>1,3; 2,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,17</t>
+          <t>1,53; 3,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,94</t>
+          <t>1,38; 1,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,04</t>
+          <t>1,42; 2,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,95</t>
+          <t>1,33; 1,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,33</t>
+          <t>1,45; 2,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,63</t>
+          <t>1,23; 1,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,2</t>
+          <t>1,47; 2,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,21</t>
+          <t>1,68; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,82</t>
+          <t>1,29; 2,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,41</t>
+          <t>1,61; 2,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,38</t>
+          <t>1,5; 2,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,17</t>
+          <t>1,78; 3,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,07</t>
+          <t>1,48; 2,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,95</t>
+          <t>1,5; 1,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,15</t>
+          <t>1,59; 2,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,82</t>
+          <t>1,82; 2,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,16</t>
+          <t>1,49; 2,33</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,13</t>
+          <t>1,24; 2,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,81</t>
+          <t>1,19; 1,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1299,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,53</t>
+          <t>1,03; 1,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,28</t>
+          <t>1,43; 2,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,27</t>
+          <t>1,93; 3,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,29</t>
+          <t>1,27; 2,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,39</t>
+          <t>1,05; 1,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,09</t>
+          <t>1,42; 2,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,75</t>
+          <t>1,74; 2,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,07</t>
+          <t>1,41; 2,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,34</t>
+          <t>1,06; 1,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,67</t>
+          <t>1,19; 1,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,01</t>
+          <t>1,29; 2,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,47</t>
+          <t>1,17; 1,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,93</t>
+          <t>1,28; 1,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,3</t>
+          <t>1,58; 2,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,62</t>
+          <t>1,25; 1,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 1,76</t>
+          <t>1,38; 1,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,33</t>
+          <t>1,63; 2,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 1,95</t>
+          <t>1,48; 1,97</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,67</t>
+          <t>1,32; 1,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,57</t>
+          <t>1,32; 1,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,92</t>
+          <t>1,52; 1,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,46</t>
+          <t>1,16; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,07</t>
+          <t>1,44; 2,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,01</t>
+          <t>1,33; 2,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,41</t>
+          <t>1,59; 2,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,76</t>
+          <t>1,4; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,97</t>
+          <t>1,51; 1,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 2,87</t>
+          <t>1,94; 2,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,1</t>
+          <t>1,83; 12,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 1,57</t>
+          <t>1,35; 1,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 1,94</t>
+          <t>1,52; 1,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,35</t>
+          <t>1,75; 2,33</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 11,21</t>
+          <t>1,82; 11,7</t>
         </is>
       </c>
     </row>
@@ -1704,52 +1704,52 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,11</t>
+          <t>1,3; 2,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,01</t>
+          <t>1,32; 2,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,57</t>
+          <t>1,21; 1,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,54</t>
+          <t>1,52; 2,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,08</t>
+          <t>1,54; 2,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,19</t>
+          <t>1,45; 2,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 1,75</t>
+          <t>1,35; 1,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,72</t>
+          <t>1,56; 2,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,95</t>
+          <t>1,49; 1,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 1,94</t>
+          <t>1,47; 1,98</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,4</t>
+          <t>1,62; 2,32</t>
         </is>
       </c>
     </row>
@@ -1844,52 +1844,52 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,47</t>
+          <t>1,29; 1,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 1,97</t>
+          <t>1,57; 1,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,81</t>
+          <t>1,5; 1,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,12</t>
+          <t>1,61; 2,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 1,87</t>
+          <t>1,62; 1,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,04</t>
+          <t>1,77; 2,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,09</t>
+          <t>1,76; 2,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,61</t>
+          <t>1,89; 9,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,68</t>
+          <t>1,52; 1,67</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 1,95</t>
+          <t>1,73; 1,94</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,71</t>
+          <t>1,85; 7,74</t>
         </is>
       </c>
     </row>
